--- a/500all/speech_level/speeches_CHRG-114hhrg22277.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22277.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Good morning. I would like to call the Subcommittee on Transportation and Public Assets to order. And this morning's hearing, which is part of the Committee on Oversight and Government Reform, will focus on oversight of the Federal Emergency Management Agency's response to the Baton Rouge and Louisiana flood disaster.    I'm pleased to welcome everyone. Without objection, the chair is authorized to declare a recess at any time. And the chair is also very pleased to note the presence of our colleagues from Louisiana, Congressman Garret Graves of the Sixth district, and also Congressman Cedric Richmond of the Second district, both of whom represent the affected area.    We appreciate again your participating in today's hearing and welcome your participation today, along with the witnesses that have been assembled.    The order of business will be that, first, I will ask a unanimous consent agreement with our minority that Congressmen Graves and Richmond will be able to provide witness testimony at the beginning of our hearing and then participate in the member questions, along with our remaining witnesses later, in the hearing. Without objection, so ordered.    I ask also unanimous consent that Congressmen Graves and Richmond be allowed to fully participate in today's hearing. And also without objection, so ordered.    The balance of the order of business today will be opening statements by myself, the ranking member, Ms. Duckworth. We'll also leave the record open for an additional period of time. I guess it will go for 1 week.</t>
   </si>
   <si>
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. That sounds wonderful.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chaffetz. Thank you. And, Chairman Mica, I want to thank you for your leadership on this in going down and visiting in Louisiana, taking time away from your family and your schedule for one of the worst disasters that we've had.    So Governor, Mayors, thank you so much for being here.    And for the FEMA representative we appreciate you being here too. But you know what, FEMA? You got to get your act together. This response so far, what I have been able to see, the pictures, it ain't good enough.    You know, Elijah Cummings talks about this a lot in our committee. We spend billions of dollars, everybody comes in and testifies that everything is good and we're ready. And then when it really, really rains--I mean, my State, we get what, 16 inches of rain maybe in an entire year? You all got 30-plus inches in 36 hours, I'm told. You got tens of thousands of people whose every bit of what they have in their homes is sitting out in their front yard, they can't even touch the toys that they have. And you've got a dozen of this and a dozen of that. It doesn't cut it.    So I hope we have as candid a discussion as possible, but the response we have seen thus far is not acceptable. And we will keep dragging you up here in front of this committee because we hear it's all good, and then when it happens it ain't so good.    And these are real people's lives. This should not be a partisan issue, it is not a partisan issue. But when you have such catastrophic failure in trying to protect the people who need the help the most and we're closing in on a month later, come on.    So we expect some real answers, some real dates, and we are going to watch this every single step of the way. But I tell you what, your first 3 weeks, FEMA, not so good, and it's not acceptable.    So I appreciate you having this hearing. And I want to have some real candid talk about what the reality is happening and how we are actually going to solve it.    Thank you. I yield back.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Graves.    And according to our unanimous consent request, I recognize the gentleman from Louisiana, Mr. Richmond.</t>
   </si>
   <si>
-    <t>Richmond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Chairman Mica, for convening this hearing and thank you for taking the time to come down to Louisiana.    Let me thank Representative Duckworth, who has recently been to Louisiana, for her commitment to making sure that the people of Louisiana recovery quickly.    Let me just thank our Governor, our mayors, and Regional Administrator Robinson for being here today, because what you will do is shed light to what is actually happening on the ground.    My district took a hit in this storm, not as much as other congressional districts. But I lived through Katrina and Rita, and when we start talking about damage and we start talking about things, the one thing we have to remember, in Katrina we lost 1,500 lives. And we learned a very valuable lesson, and that was that the FEMA we had during Katrina and Rita was a FEMA that just didn't work, a FEMA that didn't make any sense.    It has gotten a little bit better, but a lot of the rules, and I just want to be clear about it this because I want the mayors to understand that a lot of rules that FEMA are operating under are rules that are set up by this United States Congress. And that Stafford Act, which is just a colossal mess, is our Stafford Act. And when I got here and I was elected, I took my memories of Katrina and Rita and introduced the FEMA Reform Act, which has not seen the light of day because it just has not been a priority.    So I would hope that both sides can come together, especially after South Carolina, West Virginia, and all of the other disasters that FEMA has to respond to, so that we can make things make sense. And I think that you have to give the FEMA Administrator the ability to waive the provisions of the Stafford Act when there is a different way that could create substantial savings. It makes no sense to me that we would spend $60,000 to $80,000 to bring in a trailer when that $60,000 to $80,000 dollars could make that homeowner whole. But we can't, because the Stafford Act says that we cannot put any money into permanent housing. That's not a FEMA problem, that's a Congress problem.    And let me just take a moment to thank the President for his continued communication and his declaration. Many people talk about the fact that we got to 90-20 yesterday in terms of percentage.    But the speed in which the disaster declaration was given is attributed to a couple of people, one of which is the Governor, who could have chosen to do paperwork and send it in, but he decided to take our FEMA representative Stoller on a flyover of Central, of Denham Springs, and all of the areas that were affected so that when he sent the letter up the answer came back the same day to give that disaster declaration, which then opened the doors for relief.    The problem is the relief that our citizens want and the relief that they need and the relief that they deserve is tied up in red tape, and we have an obligation to come together as Republicans and Democrats to help ease that red tape.    I just want us to understand what is happening. We talk about the American Dream. People work hard their whole lives to invest in a home, which is the best way to transfer wealth to your next generation and leave a legacy. You work very hard, you get that home, you have your piece of the American Dream. You put your family photos in there, you put your wedding gown in there, you put your kids' report cards and the happy birthday notes and the father's day and the mother's day notes, and in one day you lose everything you ever had. And you can't replace it.    But it's upon government to at least help to replace the bricks and the mortar, the value that that home carries in terms of the wealth it leaves to the next generation. And we should come together as a Congress to pass a supplemental.    And, look, the President should send us a supplemental, but the delegation has to be on board. And I'm saying right now that our Louisiana delegation should unanimously request from the President a supplemental. That way it is crystal clear that our delegation supports it, the President supports it, and we can help move it through Congress.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -103,36 +91,24 @@
     <t xml:space="preserve">    Mr. Mica. Thank you, Governor.    And we'll go now to Mr. Tony Robinson, the regional administrator for FEMA.    Mr. Robinson you're recognized.</t>
   </si>
   <si>
-    <t>Robinson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Robinson. Good morning, Chairman Mica, Ranking Member Duckworth, and members of the subcommittee. My name is Tony Robinson, and I am the regional administrator for FEMA Region VI, which includes Louisiana, Arkansas, Texas, Oklahoma, New Mexico, and the 68 federally recognized tribes within that geographic area. I welcome this opportunity to discuss FEMA's role in the response and recover efforts to the flooding disaster that took place in and around the Baton Rouge, Louisiana, area between August 11 and August 31, 2016.    I also welcome this opportunity to publicly commend the State and local elected officials sitting at the witness table today, as well as local first responders. These are dedicated public servants who are working tirelessly to serve the needs of their neighbors and communities, and I appreciate all that they have done and will continue to do.    On August 14, Governor Edwards verbally requested and the President quickly granted a major disaster declaration under the authorities of the Stafford Act to provide assistance in three broad categories: public assistance, individual assistance, and the Hazard Mitigation Grant Program.    Yesterday, the President approved the 90 percent cost share for all public assistance costs for this disaster. The President's announcement of the cost-share adjustment is another step in the administration's ongoing response to flooding in Louisiana.    FEMA's public assistance and individual assistance programs are made available in areas designated as part of the major disaster declaration, while the Hazard Mitigation Grant Program is authorized across the State.    During the response and recovery phase of the disaster, FEMA works to support the State as the State works to support its local governments. For example, if a community identifies a shortfall in its capability to support its residents in the wake of disaster, the community calls upon the State to identify resources to fill that capability gap. If, however, the State determined that it does not have the resources to fill the gap as identified by the officials, the State then turns to FEMA to draw upon Federal resources to fill that gap. Even so, FEMA's moving aggressively to make sure it is properly positioned to provide Federal assistance when the State requested.    On August 12, in advance of Governor Edwards' request for Federal assistance, FEMA deployed incident management assistance teams to Louisiana to coordinate with State and local officials on lifesaving and life-sustaining operations. In support of survivors, FEMA delivered more than 2 million liters of water, 1.3 million meals, 17,700 cots, 12,500 blankets, and 2,000 tarps to the State.    At the request of State and local officials, FEMA also deployed a national urban search and rescue task force to supplement local search-and-rescue operations, and also issued a mission assignment for a national disaster medical assistant team to support the State's medical shelter operations.    Along with the State, FEMA's prioritizing housing options for survivors as we continue to work with the State-lead housing task force to identify options that meet the unique needs of disaster survivors. There are several options available. As you know and as the Governor stated, on August 24 the Governor announced the Shelter at Home program that with funding support from FEMA will allow residents who qualify to safely live in their own homes as temporary shelters while they plan and carry out permanent repairs.    The Stafford Act prescribes that individual assistance program provide funding to assist survivors with repairs for homes, for rental assistance, or to assist with other needs like cleaning costs. As of September 7, FEMA has provided more than $584 million of assistance to individuals, of which $494 million was provided in the form of housing assistance to more than 138,000 households. Furthermore, FEMA has activated its transitional sheltering assistance program on August 19 to allow eligible disaster survivors to be temporarily housed in participating hotels or motels.    Flood insurance is one of the best ways to protect homeowners and renters from financial impacts of flood events. As of September 7, over 28,500 claims have been filed with the National Flood Insurance Program. In an effort to speed repairs and recovery the NFIP authorized and issued $247 million in advanced payments to NFIP policyholders in Louisiana who sustained damages, providing expedited relief to disaster survivors.    When no other solution fits the circumstances FEMA may provide for HUD-approved manufactured housing units to provide a middle-term housing solution to survivors for up to 18 months. As with many of the other efforts, we work closely with State and local official to ensure that the placement of these MHUs is consistent with flood plain management regulations, State and local zoning codes, standards, or ordinances, and is consistent with the needs of the local community.    We continue to work closely with the State as they engage their local communities and identify projects eligible for the public assistance program. The State has scheduled applicant briefings and kickoff meetings with local officials. In each of these briefings and meetings FEMA will work side by side with the State and support them as they support their local communities in the recovery, planning, and execution.    In conclusion, FEMA is working to support the State of Louisiana as the State supports its local communities and residents. While a lot of progress has been made, the recovery from this significant disaster will take time. As local communities identify capability gaps or shortfalls with the State and the State calls upon FEMA to assist with filling those gaps, FEMA will marshal all the resources of the Federal Government that the law allows to fill those needs. FEMA will be there to help survivors until our job is done.    Again, thank for the opportunity to testify today. I look forward to any questions the subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mica. Thank you. And we'll withhold questions until we've heard from all the witnesses.    The Honorable Jr. Shelton, the mayor of Central, Louisiana, welcome, and you're recognized.</t>
   </si>
   <si>
-    <t>Shelton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shelton. Thank you very much, Mr. Chairman and committee members. We appreciate the opportunity to come here today to speak to you about what is happening in the local municipalities.    Let me begin by saying that what I say here today has to do with the procedures, the rules, the regulations, not the people of FEMA. Mr. Robinson has worked very closely with us. In fact, I wish FEMA was rife with people like Tony Robinson, I wish he was cloned and we had a lot of him. But, unfortunately, it is not so, and because of that we have some problems, and I wish to outline those. I was going to read a speech, but I decided I just want to speak from the heart and let you know what exactly is happening in our city.    Let me give you some statistics. The city of Central was incorporated 11 years ago. We are a young city. We have 27,900 citizens. Of those 27,900 citizens, approximately 25,000 were impacted during this flood--25,000. We have 11,100 residences in the city. We estimate nearly 90 percent of those homes were damaged significantly. And when I'm talking about damaged significantly, I mean at least 2 feet of water or more.    Congressman Richmond said it best when he said this is not about property, this is about lives. What you see in pictures that have been handed to you, the debris that's out there, that's not debris, that's people's lives. Can you imagine if you were 60, 70 years old and you lost everything that you had? How do you start over from there?    Quite honestly, we have mental health problems taking place in these municipalities that are represented here today. We have suicides, we have mental breakdowns, we have families being torn apart, because honestly they don't know how they're going to get back on their feet.    Let's talk about the response from FEMA. I understand the hierarchy that FEMA is to work with the State governmental agencies. And I want to compliment our Governor and our State for the work that they have done. I have no complaints whatsoever from there.    However, it is important that this gets drilled down to the local municipalities because that's where the problems are. I should not have to go to the Governor's office with individual problems presented to me by my citizens. We should have contact, constant contact with FEMA.    Twenty-one days following this event is when I got a liaison appointed to me. A nice lady, but she has absolutely no authority. Every question I've asked her, she has had to go up the chain. And I can only imagine how that chain is placed upon her to try to get answers. So I don't blame her, I blame the system, and that is what we are here today to talk about.    Disaster recovery centers, there was an announcement there would be a disaster recovery center set up in East Baton Rouge Parish. One. I went ballistic on the radio, that a parish as large as East Baton Rouge Parish was going to have one disaster recovery center. Within the day I had a call from FEMA saying that we would have one, and I think it is only because I got out there and complained about it.    Now, it was explained to me that there was going to be more disaster recovery centers set up, but the information being given to the public made it sound like only one was going to be there. That disaster recovery center is often the first contact anyone has with FEMA representatives and they are asked a series of questions. And I must tell you, after hearing the series of questions, I believe they are set up to exclude people instead of categorizing their needs.    Let me give an example. If someone were to say to them in that interview, ``Do you have a place to live?'' and they say, ``Well, yes, I'm staying with my in-laws,'' they are immediately put off on the side saying they don't have a housing need. We all know that's not acceptable.    Instead, that question should be, ``How long will be able to stay there?''    ``Well, maybe a week.''    ``Okay, we'll get back with you in a week and see if you still have housing needs.''    Instead it is put on that citizen in this time of turmoil and unrest to have to come back to ask for housing. That's unacceptable. These people need help. They don't need to be put off to the side and make them come back to ask the questions.    We had a townhall meeting that was set up by FEMA. We were elated about that. We had 1,200 persons come to a church to hear questions being answered by FEMA. They weren't answered. Had it not been for representatives from the Governor's office there would have been very little substantive answers given there.    The very first comment that the representative from FEMA said to this group of 1,200 citizens seeking help was: Hey, if we tell you no, come back and ask us again. That's telling those citizens we're trying to put you off, we're trying to wear you down, instead of, hey, we're going to try to help you, we're going to try to figure out your needs. They're trying to exclude, instead of include.    The MHU or mobile housing unit issue, that should have never been an issue. I want to give you a statistic that not many people know. In East Baton Rouge Parish, or county, we had 33,000 homes flood that are not in the flood zone. We had 31,800 flood in the flood zone. You heard me right, we had more flooding outside the flood plain than we did inside. But the policy was an MHU does not go in a flood zone. But yet we're going to put them in the flood areas that out-flooded even the flood zones.    So that policy should have been eradicated from the very beginning. AND this goes back to my point I have been saying time and time again, that instead of having this one template to take care of every disaster, you need to have templates for each type of disaster, a trigger that puts a certain team into place for certain events. And we're going to go back to the idea that this is not an event that's like an earthquake that might only happen in California or tornadoes in Oklahoma or Kansas. This is a rain event that can happen in your hometown. And we better get this right or it's going to be you sitting on this side of the table giving this testimony.    There's one issue that has really disturbed me lately because it's something that we're faced with now, the major issue: Are these citizens going to have to rebuild and raise their slabs? That's the number one question right now. But yet in the local newspaper over the weekend there were two articles written in which FEMA was stating: Hey, we're not telling them to raise their slabs, it's the local municipalities and their ordinances that will do that. What they left out is those local ordinances in the municipalities have to agree and have to be meeting the rules and regulations from FEMA. So quit putting the blame on the local people. We want them back in the homes. We want them to have help.    So in conclusion I just want to say that it's astounding to me that I'm sitting here today, that Congress and the President can send millions and billions of dollars overseas, but yet our own citizens have to beg and plead for help, those citizens who put that money in the coffers that can be sent overseas. All they went is help now.    You were given some pictures from the city of Central, I ask that you look at them. There is a picture of a very typical street where you see the debris that might be 6, 7, 8 feet tall. That's their lives, as we talked about.    In addition to that there are a couple of family pictures there, and I want you to look at those, I want you to look at the faces of those people. They're proud, but they're broken. They're hopeful, but they are shaken.    The city of Central will take care of our citizens with or without Federal Government help, but I'm here today pleading with you, please, help these people with these lives, it's American families looking for help.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mica. Thank you. Thank you, Mayor. And I will recognize the Honorable Gerard Landry, mayor of Denham Springs, Louisiana. Welcome, sir, and you're recognized.</t>
   </si>
   <si>
-    <t>Landry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Landry. Good morning, Chairman, and thank you for the invitation to share some information with you all today.    It is true that 90 percent of my homes in my city received water. 90 percent. That's hard to comprehend that that many homes have water. Of the 4,200 homes, about approaching 3,000 had over 18 inches, and that triggers the mitigation piece that we're so concerned about going forward.    But this is such an unprecedented event when you have 25 to 30 inches of rain in 72 hours. We talked about trillions of gallons of water coming down upon us. It is unbelievable what we have just gone through. And we talk about so many of these folks, 70, 80 percent of the folks did not have flood insurance. Well, the reason they didn't have flood insurance, we've never had that issue that bad.    The crest of the river was 5 foot above the highest recorded flood stage that we've ever had back in 1983. How do we even prepare for that? So our folks in our--at least in my community, don't live there without flood insurance because they want to live dangerously or because they can't afford it. They didn't need it. So this is such a--a unique and rare event that has occurred. It has just devastated all of us.    We can go into great detail about the response from FEMA. I have documented a lot of that in my brief that I have submitted to you, but the biggest single issue--well, there's actually two single--there's two big issues. One is the inconsistency of the information that is given to us and to our citizens, and the mitigation piece.    We talk about mobile housing units and how we are--we need those desperately so that our seniors can get back to their homes and that our kids can get back to school because school starts again in a week or two. They need to be back in their communities. They need to be able to go back home and live in their driveway in a trailer, of all things, so that they can put their houses back together again.    But it starts off with, Mr. Myers, you need a trailer, so we'll get you one. And then the next day or two, somebody comes by and says: Oh, no, Mr. Myers, you can't have it because you're in flood zone. Well, FEMA guidelines say you can't put one in a flood zone. Well, who needs one more than anybody else than somebody who just got flooded? So that just--there's no rhyme or reason there.    And we were instructed last week, okay, FEMA has relaxed the guidelines. We can now have mobile homes in a flood zone. But you heard me talk about Mr. Myers, he's a 90-year-old war veteran. Guess what, FEMA went to his home just Tuesday and said: No, we changed our mind again. You can't have it. Where is the consistency and the message to our people?    And you want to know why our people are frustrated? Because they don't know who to turn to. They cannot get consistent information that they need to make an intelligent decision. So to say that I'm disappointed and frustrated and angry is an understatement. My community, unlike Mr. Shelton's, is very old. We've been around since 1828 when Mr. Denham came and discovered some springs, hence the name Denham Springs. It was at that point in time when this community started to flourish, and we have large families, a lineage of generation after generation, such a strong sense of community, and that we all pull together and we all support each other. And so this--this disaster is about real people. It's not something you just see on TV and you don't connect with. But we are all--we are definitely all in this together.    My community has an antique district, and the buildings go back to the early 1900s. We have football. Everybody has football. We also have football, but you know what it is, we sell season tickets and we sell out of season tickets every year to our high school football. That's the kind of community that we have.    Our citizens love our city, and I love my citizens. And I try to be their voice. Another 90-year old, Mr. Hewitt Underwood. Mr. Hewitt served our country in the Second World War in the Coast Guard, has always been, to the veterans--has always attended every veterans' function. He's such a proud man. And now his home had 57 inches of water. He has a bride of 59 years is how long they've been married, and they want to just go back home, but with the possibility of having to elevate their home at a cost of about $100,000, he can't afford that. The home is only worth about $100,000. He's 90 years old. He just wants to go back home and live the rest of his life in peace and enjoy his kids and his grandkids and his great grandkids.    To show you how dedicated he was, some of the possessions that he had were--they were able to remove them from the home before the floods, and then after the floods, they went back to go and retrieve some of those. And when Mr. Underwood walked into his storage room, the first place he went to was the drawer where he kept his medals, all of his service medals from the military back in the Second World War. That's how--that's how much he served his country. That's how much he loves his country. But now the country is not serving him.    With the ridiculous guidelines and the procedures that FEMA subjects him and his family and everybody else in my community and these other communities is uncalled for. It's unbelievable. You have to be on the ground to truly understand exactly what our folks are being--are going through.    I would challenge anybody from the FEMA headquarters, play Undercover Boss, come to my city, go work the streets, and see what your folks are telling my people. I had a 70-year-old man, gentleman in my office just yesterday in tears. He was out of town during the flood event, came back home, drove into his driveway, saw the devastation, his wife had a heart attack.    Now she is in Hammond, 30 miles away, in a hospital. Her sister is taking care of her while this poor guy is back at home trying to take care of his possessions, trying to gut out his house, and a FEMA rep goes to him and says: Well, I'm going to tell you what, you've got to tear your house down. It's devastating. He's devastated. It devastated him. He came to me. He said, Mayor, what am I supposed to do? And we sat down and we talked and we talked, and we're okay. But the response from FEMA has been totally uncalled for.    So in closing, my biggest challenge to you is to make FEMA change the mitigation piece because if I had 3,000 homes that had more than 18 inches of water and they are deemed as substantially damaged, they want us to elevate them, that will be the death of my city. I received an email the other day of a guy that lives on Geraldine Drive, four of his neighbors have already said they are leaving, and he's strongly considering doing the same.    That piece does not need to go into effect. Please suspend it. Please use some common sense. The fact is you are going to make somebody raze their house on a 1,000-year event, a rain of such epic proportions nobody could ever comprehend, you know, what was going to happen. So do not, please, I ask you, please, do not make us raze our homes. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mayor. And we'll now hear--thank you for waiting patiently, too, Mayor Ramsey--Mayor Rick Ramsey of Walker, Louisiana. Welcome, and you're recognized.</t>
   </si>
   <si>
-    <t>Ramsey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ramsey. Thank you, sir. And again, thank you, Chairman Mica, for coming to Louisiana and viewing what devastation and what we've been going through for the past 3 weeks and for calling this hearing. I think that's extremely important.    I want to reiterate what my two mayoral colleagues have said. I agree with every point that they've made on FEMA. My experience with the FEMA representatives on the ground is that they're actually caring people that feel the hurt and the needs of the citizens of our area. The problem is, their hands are tied. The bureaucratic maze that they have to weave their way through to get anything done is impossible.    The other issue is that, from what I've seen, probably 50 percent or more of them are either rookies that have no experience with the previous disaster or part-time employees that have no previous experience. We had a large group that were brought in from Puerto Rico that really has no idea what Louisiana is about and what we're going through in this area. They're good people. They're trying. Their hands are tied. They cannot do anything.    There's--there's too many rules. There's too--too much of an effort to make this a cookie-cutter approach. I've heard 100 times, look how much we've improved since Katrina, and I said: In all due respect, I see no improvement since Katrina. This is not Katrina. This is a blue collar community where the people work. They go outside. They want to come back. They to fix their homes, and they want to get back to work, and that's what these two mayors are telling you, and it's the same thing in the city of Walker.    I think we're getting no national attention because there's a national misconception about Louisiana. We're not below sea level. We don't all border on the ocean. We aren't all on a river that floods. My city is east of Denham Springs. It's 6 miles from the Amite River, it's 100 miles from the coast. It's 32 to 40 feet above sea level. I can give you statistics from Wikipedia, and I know that's not a scientific basis, but San Francisco at 11 feet; Boston at 20; New York City at 13; Portland at 27; Philadelphia at 21; and they list Washington, D.C. as 16 feet above sea level. My city flooded at 32 to 40 feet above sea level.    The problem is our flooding was different this time. Yes, we had a catastrophic rain event. We were prepared for a heavy rain event. We have a really good meteorologist in Baton Rouge, and he called us and told us: Be prepared for a 1983 flood event. We were. Our canals were cleaned, our culverts were emptied, everything was ready. We expected double digit rains. It's not unexpected for our area. We get a lot of double-digit rains in Louisiana. We've endured Juan, we've endured Allison, we've endured Rita, Katrina, an unnamed storm of 2013. 17 inches of rain is nothing unusual. We got 27. Yes, that's unusual, but that was over a 7-day period.    Our drainage was holding. Lake Pontchartrain, Lake Manchac were at low levels because there was a westerly wind. Our drainage was holding. On Saturday afternoon, when the rain stopped, I believe that was the 13th, water fell 3 to 4 inches in water--in Walker, 3 to 4 inches. People quit worrying. They went into their homes, they drank a beer, they watched TV, they were celebrating, and at 10, 11 o'clock at night, water came up to their beds.    We had a wall of water come down Interstate 12, 5 to 6 feet in depth. This interstate was just completed less than 2 years ago. It's the city's contention that we raise the flood elevation in our city by 5 to 6 feet. Areas that would not have flooded, flooded. Yes, it's 1,000-year flood. We would have had minor to moderate flooding in Walker. Instead, we had catastrophic flooding in Walker. We had homes that were built above the base flood elevation that took 3 feet of water.    My personal home had over 5 feet of water, built in '73 and never flooded, through every rain event since 1973--excuse me, 79, never flooded.    This is unacceptable. We have a situation in southern Louisiana where a barricade is being built across our interstate system. Good intentions. Absolutely good intentions. It was to save lives, because we had lots of collisions on the interstate. We lost 13 lives in flooding, but you're not hearing about in the city of Walker where a 67-year-old man put a rifle to his temple in the Best Western Plus and killed himself 2 days after the flooding, or the mother who took a knife and cut the throat of an 8-year-old daughter and then killed herself after the flooding.    Did the flooding cause that directly? No, I can't say that. Was it a contributing factor? I think there's no doubt, and I think everybody agrees with that.    I've submitted pictures to your group. I've submitted thumb drives to your group. I would love for you all to review them, the videos that show this.    You know, we--we are--we're not a group that likes to go out and ask for help. The hardest thing I've had to do is to ask people to help me in my home. Louisiana people, country people, they take care of themselves. This has been devastating.    I'm looking for it to be even worse. And the biggest problem I have right now, and I'm going to--I don't know if I'm stepping on you all's toes or expanding on it, but as I understand the Biggert-Waters Flood Act, once you claim a flood event, then your flooding insurance goes to 100 percent. If it goes to 100 percent and you have flooded, you're going to be paying, from what I've seen locally from people that sold their houses, anywhere between $800 to $2,000 a month for flood insurance per month, depending on your home. What that is going to do is bankrupt that area, banks, mortgage companies, because people will walk away from their homes. They cannot afford a mortgage and flood insurance at that rate.    We have got to reform that. We've got to give assurances to the people that they're not going to have to elevate their homes. We've got to give assurances to the people that their flood insurance is not going to become so on onerous on them that they cannot afford to pay a mortgage.    If it's truly 1,000-year flood as we've heard, exempt them from the Biggert-Waters Act. Do not penalize them for being flooded at a time when this shouldn't have happened.    I--you know, I could go on, as everybody here could. I see I'm over--beyond my time. There's every personal story that you could want. You talk to us afterwards, we'll be happy to tell you about. And I'm sorry I got off on a tangent on the issue of the interstate, but there is no doubt in our minds--I had a very renown meteorologist tells me that anybody that looks at those pictures and says that that did not impact flooding is insane. Thank you.</t>
   </si>
   <si>
@@ -526,9 +502,6 @@
     <t xml:space="preserve">    Mr. Ramsey. I would. With your permission, though, prior to that, since the Katrina comment issued a nerve, I want to make sure that they understand: The context that that was made in was that I was told by FEMA that they had learned many lessons since Katrina. This was in my statement, that you can't use a cookie-cutter approach. You cannot use one method to make everything work.    Katrina was different because the city flooded and everybody was evacuated and it was weeks, if not months, before people were allowed back. The people in our area came back 2 to 3 days later, and FEMA was trying to treat it the same way. You know, they had days, weeks, months for some of the response to the homes in New Orleans. They don't have that in Livingston Parish because people are there gutting their homes 2 days after the water went down.    And, Mr. Richmond, in all due respect, it was not a reflection on the people of New Orleans versus the people of Livingston. It was the comment that was made to me by FEMA representatives who said they had learned so many lessons since Katrina. So I want to make sure that statement's straight and there's no misunderstanding. And, yes, part of it is, in the heat of the moment, sometimes things are said that aren't taken directly in context.    I will confirm what Mayor Landry said. Mark Wilson has been very good to help us out. He's been frustrated. I didn't even get an assistance center until I read on Facebook that they were putting one in Livingston. How many homes did Livingston flood? Do you know? I think there were maybe three or four.    I went over to the assistance center that was set up in Livingston. I walked in the room. There were 10 FEMA people helping 1 person. And I said, ``What the heck are you guys doing here? Why aren't you at Walker--I know you can't get to Denham yet, but why aren't you at Walker?''    ``We don't have a place to set up.''    ``You can have my courtroom.''    ``We can use your--"    ``right now. Come on.''    At noon, they were there. They helped 300 people in the next 2 days, and they were backed out till 7 and 8 o'clock at night every night after that.    My DRC only went up Sunday. Now, 3 weeks ago or 2-1/2 weeks ago, they asked me if I wanted a DRC. ``Yes, sir.''    ``You find me a location.''    So I found all of the dry warehouse space that we had left in Walker on Burgess or Florida, and I didn't hear back from them for a week.    A week later, I called and I said, ``Mark, what happened to my DRC?''    ``Well, they're having trouble trying to figure out if these are usable.''    I said, ``Well, that's not acceptable.''    Well, they sent somebody out, we reviewed each place, they rejected all of them. So they set up our DRC in Sidney Hutchinson Park on an asphalt lot with portable air conditioners. But, again, it's 3 to 5 miles away from where the disaster hit. It's hard for people to get out there.    So that's been my issue, is locations seem to be convenient for FEMA, not what works best for the area that you're in.    Mr. Graves of Louisiana. Thank you, Mayor.    I want to recognize that we've been joined in the hearing by Senator Landrieu, who I know has been in this exact situation in the past and worked tirelessly on the recovery of Hurricane Katrina and certainly has some insight for many of us here today.    Thank you for being here.    And I went to yield to our distinguished majority whip, Congressman Scalise.    And, Congressman, obviously, my earlier comments were in jest. We appreciate what you're doing.    So I recognize the gentleman from Louisiana for questions.</t>
   </si>
   <si>
-    <t>Scalise</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scalise. Well, thank you, Congressman Graves.    Appreciate the Governor and our other panelists for being here.    Obviously, over the last few weeks, we've been working, number one, to do everything we can to try to make sure that the Federal agencies that are involved are doing everything they can. I think it's important to hear from the mayors on the ground about the challenges.    And, you know, like every major disaster, each one's different. Clearly, this is a lot different than Katrina. I went through a lot of those issues as a State representative but working on a lot of different problems. And you just--you know, ultimately, our jobs ought to be finding out what the problems are and breaking through the red tape. And there's been some red tape identified that we've got to keep breaking through.    And we've been meeting as a delegation on a number of those issues with the Governor, and our main objective is going to be making sure that the response that has to come from Washington, especially any congressional action that's required, is something that we come together on and then focus it on making sure it helps people get back in their homes. That has to be the top priority.    And as we've been having our conversations, both going out in the field and--you know, every time I've been out there, you learn new things, you find out other things that we can do to help break through that red tape. But then we've got to make sure that our response from Washington is targeted on responding to this storm in the most effective way, learning from other mistakes, which, obviously, over decades of disasters, including what we've experienced firsthand in Louisiana, that we don't make those mistakes again.    So I appreciate what you all are doing. Continue to let us know how we can help you resolve those problems. Because the problems are real. Many of these problems are solvable. And if agencies aren't operating in the most effective way to help you get the relief you need, we're all going to be united in making sure that gets fixed.    And it's got to get fixed quickly, because, as you said, this isn't a case where maybe somebody waited 2 or 3 weeks and couldn't even get back in their community. People have already been gutting their houses 4 weeks now, trying to get back in. So the response is going to have to be targeted to this disaster in a different way and in a direct way.    So I appreciate what you all are doing. Continue to work with us. Let us know what we can do to help.    Governor, we're going to continue meeting. I know we're going to be meeting again with you as a delegation in the next few days. And we will continue to be talking to our colleagues up here.    And the good news is, you know, as you see a disaster that shows the worst of Mother Nature, it also shows the best of people. And we've seen an incredible response. I've just in the last few days we've been back up here heard from so many Members of Congress from all across the country, from both parties, that want to help us. And they sincerely understand what's happened and want to help. They don't completely understand the gravity, but they definitely understand that there was major devastation and want to offer any help that they can. And believe me, we've been making a list. But this is going to be something that we're going to all have to continue to work on and make sure that we get it right.    So thanks for what you're doing. We're going to continue to work with you. And let's all work together to get it done the right way.    I yield back.    Mr. Graves of Louisiana. I yield to the gentleman from Louisiana, Mr. Richmond, for questions.</t>
   </si>
   <si>
@@ -638,9 +611,6 @@
   </si>
   <si>
     <t>412661</t>
-  </si>
-  <si>
-    <t>Glenn Grothman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grothman. No. I'd just like to thank the witnesses for appearing here. It's certainly very helpful.</t>
@@ -1045,11 +1015,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1069,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1097,11 +1063,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1121,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1149,11 +1111,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1173,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1201,11 +1159,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1227,11 +1183,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1251,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1279,11 +1231,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1305,11 +1255,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1329,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1357,11 +1303,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1381,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1409,11 +1351,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1433,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1461,11 +1399,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1485,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1513,11 +1447,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1537,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1565,11 +1495,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1589,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1617,11 +1543,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1641,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1669,11 +1591,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1693,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1721,11 +1639,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1745,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1773,11 +1687,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1797,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1825,11 +1735,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1849,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1877,11 +1783,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1901,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1929,11 +1831,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1953,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1981,11 +1879,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2005,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2033,11 +1927,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2057,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2085,11 +1975,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2109,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2137,11 +2023,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2161,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2189,11 +2071,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2213,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2241,11 +2119,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2267,11 +2143,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2293,11 +2167,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2319,11 +2191,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2345,11 +2215,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2371,11 +2239,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2397,11 +2263,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2421,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2449,11 +2311,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2473,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2501,11 +2359,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2525,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2553,11 +2407,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2577,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2605,11 +2455,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2629,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2657,11 +2503,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2681,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2709,11 +2551,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2733,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2761,11 +2599,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2785,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2813,11 +2647,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2837,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2865,11 +2695,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2889,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2917,11 +2743,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2941,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2969,11 +2791,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2993,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3021,11 +2839,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3047,11 +2863,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3073,11 +2887,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3099,11 +2911,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3123,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3149,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3175,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3201,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3227,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3253,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3279,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3305,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3331,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3357,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3383,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3409,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3435,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3461,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3487,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3513,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3539,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3565,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3591,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3617,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3643,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3669,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3695,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3721,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3747,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3773,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3799,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3825,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3851,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3877,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3903,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3929,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3955,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3981,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4007,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4033,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4059,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4085,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4111,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4137,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4163,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4189,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4215,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4241,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4267,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4293,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4319,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4345,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4371,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4397,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4423,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4449,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4475,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4501,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4527,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4553,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4579,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4605,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4631,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4657,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4683,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4709,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4735,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4761,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4787,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4813,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4839,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4865,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4891,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>170</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4917,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4943,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4969,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4995,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5021,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5047,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5073,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5099,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5125,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5151,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5177,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5203,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5229,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5255,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5281,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5307,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5333,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5359,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5385,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5411,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5437,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5463,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5489,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5515,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5541,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5567,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5593,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5619,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5645,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" t="s">
-        <v>38</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5671,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5699,11 +5311,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5723,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5751,11 +5359,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5775,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5803,11 +5407,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5827,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>207</v>
-      </c>
-      <c r="G186" t="s">
-        <v>208</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5855,11 +5455,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22277.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22277.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400273</t>
   </si>
   <si>
+    <t>Mica</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mica. Good morning. I would like to call the Subcommittee on Transportation and Public Assets to order. And this morning's hearing, which is part of the Committee on Oversight and Government Reform, will focus on oversight of the Federal Emergency Management Agency's response to the Baton Rouge and Louisiana flood disaster.    I'm pleased to welcome everyone. Without objection, the chair is authorized to declare a recess at any time. And the chair is also very pleased to note the presence of our colleagues from Louisiana, Congressman Garret Graves of the Sixth district, and also Congressman Cedric Richmond of the Second district, both of whom represent the affected area.    We appreciate again your participating in today's hearing and welcome your participation today, along with the witnesses that have been assembled.    The order of business will be that, first, I will ask a unanimous consent agreement with our minority that Congressmen Graves and Richmond will be able to provide witness testimony at the beginning of our hearing and then participate in the member questions, along with our remaining witnesses later, in the hearing. Without objection, so ordered.    I ask also unanimous consent that Congressmen Graves and Richmond be allowed to fully participate in today's hearing. And also without objection, so ordered.    The balance of the order of business today will be opening statements by myself, the ranking member, Ms. Duckworth. We'll also leave the record open for an additional period of time. I guess it will go for 1 week.</t>
   </si>
   <si>
     <t>412533</t>
   </si>
   <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Duckworth. That sounds wonderful.</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Chaffetz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chaffetz. Thank you. And, Chairman Mica, I want to thank you for your leadership on this in going down and visiting in Louisiana, taking time away from your family and your schedule for one of the worst disasters that we've had.    So Governor, Mayors, thank you so much for being here.    And for the FEMA representative we appreciate you being here too. But you know what, FEMA? You got to get your act together. This response so far, what I have been able to see, the pictures, it ain't good enough.    You know, Elijah Cummings talks about this a lot in our committee. We spend billions of dollars, everybody comes in and testifies that everything is good and we're ready. And then when it really, really rains--I mean, my State, we get what, 16 inches of rain maybe in an entire year? You all got 30-plus inches in 36 hours, I'm told. You got tens of thousands of people whose every bit of what they have in their homes is sitting out in their front yard, they can't even touch the toys that they have. And you've got a dozen of this and a dozen of that. It doesn't cut it.    So I hope we have as candid a discussion as possible, but the response we have seen thus far is not acceptable. And we will keep dragging you up here in front of this committee because we hear it's all good, and then when it happens it ain't so good.    And these are real people's lives. This should not be a partisan issue, it is not a partisan issue. But when you have such catastrophic failure in trying to protect the people who need the help the most and we're closing in on a month later, come on.    So we expect some real answers, some real dates, and we are going to watch this every single step of the way. But I tell you what, your first 3 weeks, FEMA, not so good, and it's not acceptable.    So I appreciate you having this hearing. And I want to have some real candid talk about what the reality is happening and how we are actually going to solve it.    Thank you. I yield back.</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Graves.    And according to our unanimous consent request, I recognize the gentleman from Louisiana, Mr. Richmond.</t>
   </si>
   <si>
+    <t>Richmond</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Chairman Mica, for convening this hearing and thank you for taking the time to come down to Louisiana.    Let me thank Representative Duckworth, who has recently been to Louisiana, for her commitment to making sure that the people of Louisiana recovery quickly.    Let me just thank our Governor, our mayors, and Regional Administrator Robinson for being here today, because what you will do is shed light to what is actually happening on the ground.    My district took a hit in this storm, not as much as other congressional districts. But I lived through Katrina and Rita, and when we start talking about damage and we start talking about things, the one thing we have to remember, in Katrina we lost 1,500 lives. And we learned a very valuable lesson, and that was that the FEMA we had during Katrina and Rita was a FEMA that just didn't work, a FEMA that didn't make any sense.    It has gotten a little bit better, but a lot of the rules, and I just want to be clear about it this because I want the mayors to understand that a lot of rules that FEMA are operating under are rules that are set up by this United States Congress. And that Stafford Act, which is just a colossal mess, is our Stafford Act. And when I got here and I was elected, I took my memories of Katrina and Rita and introduced the FEMA Reform Act, which has not seen the light of day because it just has not been a priority.    So I would hope that both sides can come together, especially after South Carolina, West Virginia, and all of the other disasters that FEMA has to respond to, so that we can make things make sense. And I think that you have to give the FEMA Administrator the ability to waive the provisions of the Stafford Act when there is a different way that could create substantial savings. It makes no sense to me that we would spend $60,000 to $80,000 to bring in a trailer when that $60,000 to $80,000 dollars could make that homeowner whole. But we can't, because the Stafford Act says that we cannot put any money into permanent housing. That's not a FEMA problem, that's a Congress problem.    And let me just take a moment to thank the President for his continued communication and his declaration. Many people talk about the fact that we got to 90-20 yesterday in terms of percentage.    But the speed in which the disaster declaration was given is attributed to a couple of people, one of which is the Governor, who could have chosen to do paperwork and send it in, but he decided to take our FEMA representative Stoller on a flyover of Central, of Denham Springs, and all of the areas that were affected so that when he sent the letter up the answer came back the same day to give that disaster declaration, which then opened the doors for relief.    The problem is the relief that our citizens want and the relief that they need and the relief that they deserve is tied up in red tape, and we have an obligation to come together as Republicans and Democrats to help ease that red tape.    I just want us to understand what is happening. We talk about the American Dream. People work hard their whole lives to invest in a home, which is the best way to transfer wealth to your next generation and leave a legacy. You work very hard, you get that home, you have your piece of the American Dream. You put your family photos in there, you put your wedding gown in there, you put your kids' report cards and the happy birthday notes and the father's day and the mother's day notes, and in one day you lose everything you ever had. And you can't replace it.    But it's upon government to at least help to replace the bricks and the mortar, the value that that home carries in terms of the wealth it leaves to the next generation. And we should come together as a Congress to pass a supplemental.    And, look, the President should send us a supplemental, but the delegation has to be on board. And I'm saying right now that our Louisiana delegation should unanimously request from the President a supplemental. That way it is crystal clear that our delegation supports it, the President supports it, and we can help move it through Congress.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -91,24 +112,36 @@
     <t xml:space="preserve">    Mr. Mica. Thank you, Governor.    And we'll go now to Mr. Tony Robinson, the regional administrator for FEMA.    Mr. Robinson you're recognized.</t>
   </si>
   <si>
+    <t>Robinson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Robinson. Good morning, Chairman Mica, Ranking Member Duckworth, and members of the subcommittee. My name is Tony Robinson, and I am the regional administrator for FEMA Region VI, which includes Louisiana, Arkansas, Texas, Oklahoma, New Mexico, and the 68 federally recognized tribes within that geographic area. I welcome this opportunity to discuss FEMA's role in the response and recover efforts to the flooding disaster that took place in and around the Baton Rouge, Louisiana, area between August 11 and August 31, 2016.    I also welcome this opportunity to publicly commend the State and local elected officials sitting at the witness table today, as well as local first responders. These are dedicated public servants who are working tirelessly to serve the needs of their neighbors and communities, and I appreciate all that they have done and will continue to do.    On August 14, Governor Edwards verbally requested and the President quickly granted a major disaster declaration under the authorities of the Stafford Act to provide assistance in three broad categories: public assistance, individual assistance, and the Hazard Mitigation Grant Program.    Yesterday, the President approved the 90 percent cost share for all public assistance costs for this disaster. The President's announcement of the cost-share adjustment is another step in the administration's ongoing response to flooding in Louisiana.    FEMA's public assistance and individual assistance programs are made available in areas designated as part of the major disaster declaration, while the Hazard Mitigation Grant Program is authorized across the State.    During the response and recovery phase of the disaster, FEMA works to support the State as the State works to support its local governments. For example, if a community identifies a shortfall in its capability to support its residents in the wake of disaster, the community calls upon the State to identify resources to fill that capability gap. If, however, the State determined that it does not have the resources to fill the gap as identified by the officials, the State then turns to FEMA to draw upon Federal resources to fill that gap. Even so, FEMA's moving aggressively to make sure it is properly positioned to provide Federal assistance when the State requested.    On August 12, in advance of Governor Edwards' request for Federal assistance, FEMA deployed incident management assistance teams to Louisiana to coordinate with State and local officials on lifesaving and life-sustaining operations. In support of survivors, FEMA delivered more than 2 million liters of water, 1.3 million meals, 17,700 cots, 12,500 blankets, and 2,000 tarps to the State.    At the request of State and local officials, FEMA also deployed a national urban search and rescue task force to supplement local search-and-rescue operations, and also issued a mission assignment for a national disaster medical assistant team to support the State's medical shelter operations.    Along with the State, FEMA's prioritizing housing options for survivors as we continue to work with the State-lead housing task force to identify options that meet the unique needs of disaster survivors. There are several options available. As you know and as the Governor stated, on August 24 the Governor announced the Shelter at Home program that with funding support from FEMA will allow residents who qualify to safely live in their own homes as temporary shelters while they plan and carry out permanent repairs.    The Stafford Act prescribes that individual assistance program provide funding to assist survivors with repairs for homes, for rental assistance, or to assist with other needs like cleaning costs. As of September 7, FEMA has provided more than $584 million of assistance to individuals, of which $494 million was provided in the form of housing assistance to more than 138,000 households. Furthermore, FEMA has activated its transitional sheltering assistance program on August 19 to allow eligible disaster survivors to be temporarily housed in participating hotels or motels.    Flood insurance is one of the best ways to protect homeowners and renters from financial impacts of flood events. As of September 7, over 28,500 claims have been filed with the National Flood Insurance Program. In an effort to speed repairs and recovery the NFIP authorized and issued $247 million in advanced payments to NFIP policyholders in Louisiana who sustained damages, providing expedited relief to disaster survivors.    When no other solution fits the circumstances FEMA may provide for HUD-approved manufactured housing units to provide a middle-term housing solution to survivors for up to 18 months. As with many of the other efforts, we work closely with State and local official to ensure that the placement of these MHUs is consistent with flood plain management regulations, State and local zoning codes, standards, or ordinances, and is consistent with the needs of the local community.    We continue to work closely with the State as they engage their local communities and identify projects eligible for the public assistance program. The State has scheduled applicant briefings and kickoff meetings with local officials. In each of these briefings and meetings FEMA will work side by side with the State and support them as they support their local communities in the recovery, planning, and execution.    In conclusion, FEMA is working to support the State of Louisiana as the State supports its local communities and residents. While a lot of progress has been made, the recovery from this significant disaster will take time. As local communities identify capability gaps or shortfalls with the State and the State calls upon FEMA to assist with filling those gaps, FEMA will marshal all the resources of the Federal Government that the law allows to fill those needs. FEMA will be there to help survivors until our job is done.    Again, thank for the opportunity to testify today. I look forward to any questions the subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mica. Thank you. And we'll withhold questions until we've heard from all the witnesses.    The Honorable Jr. Shelton, the mayor of Central, Louisiana, welcome, and you're recognized.</t>
   </si>
   <si>
+    <t>Shelton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shelton. Thank you very much, Mr. Chairman and committee members. We appreciate the opportunity to come here today to speak to you about what is happening in the local municipalities.    Let me begin by saying that what I say here today has to do with the procedures, the rules, the regulations, not the people of FEMA. Mr. Robinson has worked very closely with us. In fact, I wish FEMA was rife with people like Tony Robinson, I wish he was cloned and we had a lot of him. But, unfortunately, it is not so, and because of that we have some problems, and I wish to outline those. I was going to read a speech, but I decided I just want to speak from the heart and let you know what exactly is happening in our city.    Let me give you some statistics. The city of Central was incorporated 11 years ago. We are a young city. We have 27,900 citizens. Of those 27,900 citizens, approximately 25,000 were impacted during this flood--25,000. We have 11,100 residences in the city. We estimate nearly 90 percent of those homes were damaged significantly. And when I'm talking about damaged significantly, I mean at least 2 feet of water or more.    Congressman Richmond said it best when he said this is not about property, this is about lives. What you see in pictures that have been handed to you, the debris that's out there, that's not debris, that's people's lives. Can you imagine if you were 60, 70 years old and you lost everything that you had? How do you start over from there?    Quite honestly, we have mental health problems taking place in these municipalities that are represented here today. We have suicides, we have mental breakdowns, we have families being torn apart, because honestly they don't know how they're going to get back on their feet.    Let's talk about the response from FEMA. I understand the hierarchy that FEMA is to work with the State governmental agencies. And I want to compliment our Governor and our State for the work that they have done. I have no complaints whatsoever from there.    However, it is important that this gets drilled down to the local municipalities because that's where the problems are. I should not have to go to the Governor's office with individual problems presented to me by my citizens. We should have contact, constant contact with FEMA.    Twenty-one days following this event is when I got a liaison appointed to me. A nice lady, but she has absolutely no authority. Every question I've asked her, she has had to go up the chain. And I can only imagine how that chain is placed upon her to try to get answers. So I don't blame her, I blame the system, and that is what we are here today to talk about.    Disaster recovery centers, there was an announcement there would be a disaster recovery center set up in East Baton Rouge Parish. One. I went ballistic on the radio, that a parish as large as East Baton Rouge Parish was going to have one disaster recovery center. Within the day I had a call from FEMA saying that we would have one, and I think it is only because I got out there and complained about it.    Now, it was explained to me that there was going to be more disaster recovery centers set up, but the information being given to the public made it sound like only one was going to be there. That disaster recovery center is often the first contact anyone has with FEMA representatives and they are asked a series of questions. And I must tell you, after hearing the series of questions, I believe they are set up to exclude people instead of categorizing their needs.    Let me give an example. If someone were to say to them in that interview, ``Do you have a place to live?'' and they say, ``Well, yes, I'm staying with my in-laws,'' they are immediately put off on the side saying they don't have a housing need. We all know that's not acceptable.    Instead, that question should be, ``How long will be able to stay there?''    ``Well, maybe a week.''    ``Okay, we'll get back with you in a week and see if you still have housing needs.''    Instead it is put on that citizen in this time of turmoil and unrest to have to come back to ask for housing. That's unacceptable. These people need help. They don't need to be put off to the side and make them come back to ask the questions.    We had a townhall meeting that was set up by FEMA. We were elated about that. We had 1,200 persons come to a church to hear questions being answered by FEMA. They weren't answered. Had it not been for representatives from the Governor's office there would have been very little substantive answers given there.    The very first comment that the representative from FEMA said to this group of 1,200 citizens seeking help was: Hey, if we tell you no, come back and ask us again. That's telling those citizens we're trying to put you off, we're trying to wear you down, instead of, hey, we're going to try to help you, we're going to try to figure out your needs. They're trying to exclude, instead of include.    The MHU or mobile housing unit issue, that should have never been an issue. I want to give you a statistic that not many people know. In East Baton Rouge Parish, or county, we had 33,000 homes flood that are not in the flood zone. We had 31,800 flood in the flood zone. You heard me right, we had more flooding outside the flood plain than we did inside. But the policy was an MHU does not go in a flood zone. But yet we're going to put them in the flood areas that out-flooded even the flood zones.    So that policy should have been eradicated from the very beginning. AND this goes back to my point I have been saying time and time again, that instead of having this one template to take care of every disaster, you need to have templates for each type of disaster, a trigger that puts a certain team into place for certain events. And we're going to go back to the idea that this is not an event that's like an earthquake that might only happen in California or tornadoes in Oklahoma or Kansas. This is a rain event that can happen in your hometown. And we better get this right or it's going to be you sitting on this side of the table giving this testimony.    There's one issue that has really disturbed me lately because it's something that we're faced with now, the major issue: Are these citizens going to have to rebuild and raise their slabs? That's the number one question right now. But yet in the local newspaper over the weekend there were two articles written in which FEMA was stating: Hey, we're not telling them to raise their slabs, it's the local municipalities and their ordinances that will do that. What they left out is those local ordinances in the municipalities have to agree and have to be meeting the rules and regulations from FEMA. So quit putting the blame on the local people. We want them back in the homes. We want them to have help.    So in conclusion I just want to say that it's astounding to me that I'm sitting here today, that Congress and the President can send millions and billions of dollars overseas, but yet our own citizens have to beg and plead for help, those citizens who put that money in the coffers that can be sent overseas. All they went is help now.    You were given some pictures from the city of Central, I ask that you look at them. There is a picture of a very typical street where you see the debris that might be 6, 7, 8 feet tall. That's their lives, as we talked about.    In addition to that there are a couple of family pictures there, and I want you to look at those, I want you to look at the faces of those people. They're proud, but they're broken. They're hopeful, but they are shaken.    The city of Central will take care of our citizens with or without Federal Government help, but I'm here today pleading with you, please, help these people with these lives, it's American families looking for help.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mica. Thank you. Thank you, Mayor. And I will recognize the Honorable Gerard Landry, mayor of Denham Springs, Louisiana. Welcome, sir, and you're recognized.</t>
   </si>
   <si>
+    <t>Landry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Landry. Good morning, Chairman, and thank you for the invitation to share some information with you all today.    It is true that 90 percent of my homes in my city received water. 90 percent. That's hard to comprehend that that many homes have water. Of the 4,200 homes, about approaching 3,000 had over 18 inches, and that triggers the mitigation piece that we're so concerned about going forward.    But this is such an unprecedented event when you have 25 to 30 inches of rain in 72 hours. We talked about trillions of gallons of water coming down upon us. It is unbelievable what we have just gone through. And we talk about so many of these folks, 70, 80 percent of the folks did not have flood insurance. Well, the reason they didn't have flood insurance, we've never had that issue that bad.    The crest of the river was 5 foot above the highest recorded flood stage that we've ever had back in 1983. How do we even prepare for that? So our folks in our--at least in my community, don't live there without flood insurance because they want to live dangerously or because they can't afford it. They didn't need it. So this is such a--a unique and rare event that has occurred. It has just devastated all of us.    We can go into great detail about the response from FEMA. I have documented a lot of that in my brief that I have submitted to you, but the biggest single issue--well, there's actually two single--there's two big issues. One is the inconsistency of the information that is given to us and to our citizens, and the mitigation piece.    We talk about mobile housing units and how we are--we need those desperately so that our seniors can get back to their homes and that our kids can get back to school because school starts again in a week or two. They need to be back in their communities. They need to be able to go back home and live in their driveway in a trailer, of all things, so that they can put their houses back together again.    But it starts off with, Mr. Myers, you need a trailer, so we'll get you one. And then the next day or two, somebody comes by and says: Oh, no, Mr. Myers, you can't have it because you're in flood zone. Well, FEMA guidelines say you can't put one in a flood zone. Well, who needs one more than anybody else than somebody who just got flooded? So that just--there's no rhyme or reason there.    And we were instructed last week, okay, FEMA has relaxed the guidelines. We can now have mobile homes in a flood zone. But you heard me talk about Mr. Myers, he's a 90-year-old war veteran. Guess what, FEMA went to his home just Tuesday and said: No, we changed our mind again. You can't have it. Where is the consistency and the message to our people?    And you want to know why our people are frustrated? Because they don't know who to turn to. They cannot get consistent information that they need to make an intelligent decision. So to say that I'm disappointed and frustrated and angry is an understatement. My community, unlike Mr. Shelton's, is very old. We've been around since 1828 when Mr. Denham came and discovered some springs, hence the name Denham Springs. It was at that point in time when this community started to flourish, and we have large families, a lineage of generation after generation, such a strong sense of community, and that we all pull together and we all support each other. And so this--this disaster is about real people. It's not something you just see on TV and you don't connect with. But we are all--we are definitely all in this together.    My community has an antique district, and the buildings go back to the early 1900s. We have football. Everybody has football. We also have football, but you know what it is, we sell season tickets and we sell out of season tickets every year to our high school football. That's the kind of community that we have.    Our citizens love our city, and I love my citizens. And I try to be their voice. Another 90-year old, Mr. Hewitt Underwood. Mr. Hewitt served our country in the Second World War in the Coast Guard, has always been, to the veterans--has always attended every veterans' function. He's such a proud man. And now his home had 57 inches of water. He has a bride of 59 years is how long they've been married, and they want to just go back home, but with the possibility of having to elevate their home at a cost of about $100,000, he can't afford that. The home is only worth about $100,000. He's 90 years old. He just wants to go back home and live the rest of his life in peace and enjoy his kids and his grandkids and his great grandkids.    To show you how dedicated he was, some of the possessions that he had were--they were able to remove them from the home before the floods, and then after the floods, they went back to go and retrieve some of those. And when Mr. Underwood walked into his storage room, the first place he went to was the drawer where he kept his medals, all of his service medals from the military back in the Second World War. That's how--that's how much he served his country. That's how much he loves his country. But now the country is not serving him.    With the ridiculous guidelines and the procedures that FEMA subjects him and his family and everybody else in my community and these other communities is uncalled for. It's unbelievable. You have to be on the ground to truly understand exactly what our folks are being--are going through.    I would challenge anybody from the FEMA headquarters, play Undercover Boss, come to my city, go work the streets, and see what your folks are telling my people. I had a 70-year-old man, gentleman in my office just yesterday in tears. He was out of town during the flood event, came back home, drove into his driveway, saw the devastation, his wife had a heart attack.    Now she is in Hammond, 30 miles away, in a hospital. Her sister is taking care of her while this poor guy is back at home trying to take care of his possessions, trying to gut out his house, and a FEMA rep goes to him and says: Well, I'm going to tell you what, you've got to tear your house down. It's devastating. He's devastated. It devastated him. He came to me. He said, Mayor, what am I supposed to do? And we sat down and we talked and we talked, and we're okay. But the response from FEMA has been totally uncalled for.    So in closing, my biggest challenge to you is to make FEMA change the mitigation piece because if I had 3,000 homes that had more than 18 inches of water and they are deemed as substantially damaged, they want us to elevate them, that will be the death of my city. I received an email the other day of a guy that lives on Geraldine Drive, four of his neighbors have already said they are leaving, and he's strongly considering doing the same.    That piece does not need to go into effect. Please suspend it. Please use some common sense. The fact is you are going to make somebody raze their house on a 1,000-year event, a rain of such epic proportions nobody could ever comprehend, you know, what was going to happen. So do not, please, I ask you, please, do not make us raze our homes. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mayor. And we'll now hear--thank you for waiting patiently, too, Mayor Ramsey--Mayor Rick Ramsey of Walker, Louisiana. Welcome, and you're recognized.</t>
   </si>
   <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ramsey. Thank you, sir. And again, thank you, Chairman Mica, for coming to Louisiana and viewing what devastation and what we've been going through for the past 3 weeks and for calling this hearing. I think that's extremely important.    I want to reiterate what my two mayoral colleagues have said. I agree with every point that they've made on FEMA. My experience with the FEMA representatives on the ground is that they're actually caring people that feel the hurt and the needs of the citizens of our area. The problem is, their hands are tied. The bureaucratic maze that they have to weave their way through to get anything done is impossible.    The other issue is that, from what I've seen, probably 50 percent or more of them are either rookies that have no experience with the previous disaster or part-time employees that have no previous experience. We had a large group that were brought in from Puerto Rico that really has no idea what Louisiana is about and what we're going through in this area. They're good people. They're trying. Their hands are tied. They cannot do anything.    There's--there's too many rules. There's too--too much of an effort to make this a cookie-cutter approach. I've heard 100 times, look how much we've improved since Katrina, and I said: In all due respect, I see no improvement since Katrina. This is not Katrina. This is a blue collar community where the people work. They go outside. They want to come back. They to fix their homes, and they want to get back to work, and that's what these two mayors are telling you, and it's the same thing in the city of Walker.    I think we're getting no national attention because there's a national misconception about Louisiana. We're not below sea level. We don't all border on the ocean. We aren't all on a river that floods. My city is east of Denham Springs. It's 6 miles from the Amite River, it's 100 miles from the coast. It's 32 to 40 feet above sea level. I can give you statistics from Wikipedia, and I know that's not a scientific basis, but San Francisco at 11 feet; Boston at 20; New York City at 13; Portland at 27; Philadelphia at 21; and they list Washington, D.C. as 16 feet above sea level. My city flooded at 32 to 40 feet above sea level.    The problem is our flooding was different this time. Yes, we had a catastrophic rain event. We were prepared for a heavy rain event. We have a really good meteorologist in Baton Rouge, and he called us and told us: Be prepared for a 1983 flood event. We were. Our canals were cleaned, our culverts were emptied, everything was ready. We expected double digit rains. It's not unexpected for our area. We get a lot of double-digit rains in Louisiana. We've endured Juan, we've endured Allison, we've endured Rita, Katrina, an unnamed storm of 2013. 17 inches of rain is nothing unusual. We got 27. Yes, that's unusual, but that was over a 7-day period.    Our drainage was holding. Lake Pontchartrain, Lake Manchac were at low levels because there was a westerly wind. Our drainage was holding. On Saturday afternoon, when the rain stopped, I believe that was the 13th, water fell 3 to 4 inches in water--in Walker, 3 to 4 inches. People quit worrying. They went into their homes, they drank a beer, they watched TV, they were celebrating, and at 10, 11 o'clock at night, water came up to their beds.    We had a wall of water come down Interstate 12, 5 to 6 feet in depth. This interstate was just completed less than 2 years ago. It's the city's contention that we raise the flood elevation in our city by 5 to 6 feet. Areas that would not have flooded, flooded. Yes, it's 1,000-year flood. We would have had minor to moderate flooding in Walker. Instead, we had catastrophic flooding in Walker. We had homes that were built above the base flood elevation that took 3 feet of water.    My personal home had over 5 feet of water, built in '73 and never flooded, through every rain event since 1973--excuse me, 79, never flooded.    This is unacceptable. We have a situation in southern Louisiana where a barricade is being built across our interstate system. Good intentions. Absolutely good intentions. It was to save lives, because we had lots of collisions on the interstate. We lost 13 lives in flooding, but you're not hearing about in the city of Walker where a 67-year-old man put a rifle to his temple in the Best Western Plus and killed himself 2 days after the flooding, or the mother who took a knife and cut the throat of an 8-year-old daughter and then killed herself after the flooding.    Did the flooding cause that directly? No, I can't say that. Was it a contributing factor? I think there's no doubt, and I think everybody agrees with that.    I've submitted pictures to your group. I've submitted thumb drives to your group. I would love for you all to review them, the videos that show this.    You know, we--we are--we're not a group that likes to go out and ask for help. The hardest thing I've had to do is to ask people to help me in my home. Louisiana people, country people, they take care of themselves. This has been devastating.    I'm looking for it to be even worse. And the biggest problem I have right now, and I'm going to--I don't know if I'm stepping on you all's toes or expanding on it, but as I understand the Biggert-Waters Flood Act, once you claim a flood event, then your flooding insurance goes to 100 percent. If it goes to 100 percent and you have flooded, you're going to be paying, from what I've seen locally from people that sold their houses, anywhere between $800 to $2,000 a month for flood insurance per month, depending on your home. What that is going to do is bankrupt that area, banks, mortgage companies, because people will walk away from their homes. They cannot afford a mortgage and flood insurance at that rate.    We have got to reform that. We've got to give assurances to the people that they're not going to have to elevate their homes. We've got to give assurances to the people that their flood insurance is not going to become so on onerous on them that they cannot afford to pay a mortgage.    If it's truly 1,000-year flood as we've heard, exempt them from the Biggert-Waters Act. Do not penalize them for being flooded at a time when this shouldn't have happened.    I--you know, I could go on, as everybody here could. I see I'm over--beyond my time. There's every personal story that you could want. You talk to us afterwards, we'll be happy to tell you about. And I'm sorry I got off on a tangent on the issue of the interstate, but there is no doubt in our minds--I had a very renown meteorologist tells me that anybody that looks at those pictures and says that that did not impact flooding is insane. Thank you.</t>
   </si>
   <si>
@@ -502,6 +535,9 @@
     <t xml:space="preserve">    Mr. Ramsey. I would. With your permission, though, prior to that, since the Katrina comment issued a nerve, I want to make sure that they understand: The context that that was made in was that I was told by FEMA that they had learned many lessons since Katrina. This was in my statement, that you can't use a cookie-cutter approach. You cannot use one method to make everything work.    Katrina was different because the city flooded and everybody was evacuated and it was weeks, if not months, before people were allowed back. The people in our area came back 2 to 3 days later, and FEMA was trying to treat it the same way. You know, they had days, weeks, months for some of the response to the homes in New Orleans. They don't have that in Livingston Parish because people are there gutting their homes 2 days after the water went down.    And, Mr. Richmond, in all due respect, it was not a reflection on the people of New Orleans versus the people of Livingston. It was the comment that was made to me by FEMA representatives who said they had learned so many lessons since Katrina. So I want to make sure that statement's straight and there's no misunderstanding. And, yes, part of it is, in the heat of the moment, sometimes things are said that aren't taken directly in context.    I will confirm what Mayor Landry said. Mark Wilson has been very good to help us out. He's been frustrated. I didn't even get an assistance center until I read on Facebook that they were putting one in Livingston. How many homes did Livingston flood? Do you know? I think there were maybe three or four.    I went over to the assistance center that was set up in Livingston. I walked in the room. There were 10 FEMA people helping 1 person. And I said, ``What the heck are you guys doing here? Why aren't you at Walker--I know you can't get to Denham yet, but why aren't you at Walker?''    ``We don't have a place to set up.''    ``You can have my courtroom.''    ``We can use your--"    ``right now. Come on.''    At noon, they were there. They helped 300 people in the next 2 days, and they were backed out till 7 and 8 o'clock at night every night after that.    My DRC only went up Sunday. Now, 3 weeks ago or 2-1/2 weeks ago, they asked me if I wanted a DRC. ``Yes, sir.''    ``You find me a location.''    So I found all of the dry warehouse space that we had left in Walker on Burgess or Florida, and I didn't hear back from them for a week.    A week later, I called and I said, ``Mark, what happened to my DRC?''    ``Well, they're having trouble trying to figure out if these are usable.''    I said, ``Well, that's not acceptable.''    Well, they sent somebody out, we reviewed each place, they rejected all of them. So they set up our DRC in Sidney Hutchinson Park on an asphalt lot with portable air conditioners. But, again, it's 3 to 5 miles away from where the disaster hit. It's hard for people to get out there.    So that's been my issue, is locations seem to be convenient for FEMA, not what works best for the area that you're in.    Mr. Graves of Louisiana. Thank you, Mayor.    I want to recognize that we've been joined in the hearing by Senator Landrieu, who I know has been in this exact situation in the past and worked tirelessly on the recovery of Hurricane Katrina and certainly has some insight for many of us here today.    Thank you for being here.    And I went to yield to our distinguished majority whip, Congressman Scalise.    And, Congressman, obviously, my earlier comments were in jest. We appreciate what you're doing.    So I recognize the gentleman from Louisiana for questions.</t>
   </si>
   <si>
+    <t>Scalise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scalise. Well, thank you, Congressman Graves.    Appreciate the Governor and our other panelists for being here.    Obviously, over the last few weeks, we've been working, number one, to do everything we can to try to make sure that the Federal agencies that are involved are doing everything they can. I think it's important to hear from the mayors on the ground about the challenges.    And, you know, like every major disaster, each one's different. Clearly, this is a lot different than Katrina. I went through a lot of those issues as a State representative but working on a lot of different problems. And you just--you know, ultimately, our jobs ought to be finding out what the problems are and breaking through the red tape. And there's been some red tape identified that we've got to keep breaking through.    And we've been meeting as a delegation on a number of those issues with the Governor, and our main objective is going to be making sure that the response that has to come from Washington, especially any congressional action that's required, is something that we come together on and then focus it on making sure it helps people get back in their homes. That has to be the top priority.    And as we've been having our conversations, both going out in the field and--you know, every time I've been out there, you learn new things, you find out other things that we can do to help break through that red tape. But then we've got to make sure that our response from Washington is targeted on responding to this storm in the most effective way, learning from other mistakes, which, obviously, over decades of disasters, including what we've experienced firsthand in Louisiana, that we don't make those mistakes again.    So I appreciate what you all are doing. Continue to let us know how we can help you resolve those problems. Because the problems are real. Many of these problems are solvable. And if agencies aren't operating in the most effective way to help you get the relief you need, we're all going to be united in making sure that gets fixed.    And it's got to get fixed quickly, because, as you said, this isn't a case where maybe somebody waited 2 or 3 weeks and couldn't even get back in their community. People have already been gutting their houses 4 weeks now, trying to get back in. So the response is going to have to be targeted to this disaster in a different way and in a direct way.    So I appreciate what you all are doing. Continue to work with us. Let us know what we can do to help.    Governor, we're going to continue meeting. I know we're going to be meeting again with you as a delegation in the next few days. And we will continue to be talking to our colleagues up here.    And the good news is, you know, as you see a disaster that shows the worst of Mother Nature, it also shows the best of people. And we've seen an incredible response. I've just in the last few days we've been back up here heard from so many Members of Congress from all across the country, from both parties, that want to help us. And they sincerely understand what's happened and want to help. They don't completely understand the gravity, but they definitely understand that there was major devastation and want to offer any help that they can. And believe me, we've been making a list. But this is going to be something that we're going to all have to continue to work on and make sure that we get it right.    So thanks for what you're doing. We're going to continue to work with you. And let's all work together to get it done the right way.    I yield back.    Mr. Graves of Louisiana. I yield to the gentleman from Louisiana, Mr. Richmond, for questions.</t>
   </si>
   <si>
@@ -611,6 +647,12 @@
   </si>
   <si>
     <t>412661</t>
+  </si>
+  <si>
+    <t>Grothman</t>
+  </si>
+  <si>
+    <t>Glenn</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Grothman. No. I'd just like to thank the witnesses for appearing here. It's certainly very helpful.</t>
@@ -965,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,7 +1015,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,4469 +1037,5166 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
       <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
       <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
       <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
       <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
       <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
       <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
       <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
       <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
       <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>32</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>32</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>32</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>32</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>32</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>32</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>32</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G118" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>32</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G120" t="s">
+        <v>32</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>32</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>32</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G127" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>32</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>32</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>32</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>32</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>28</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>32</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>28</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>28</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s">
+        <v>32</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s">
+        <v>28</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s">
+        <v>32</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>28</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>38</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G149" t="s">
+        <v>41</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>173</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G151" t="s">
+        <v>28</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G155" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G157" t="s">
+        <v>28</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>35</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G159" t="s">
+        <v>35</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G161" t="s">
+        <v>35</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s">
+        <v>35</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G164" t="s">
+        <v>32</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G165" t="s">
+        <v>32</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G166" t="s">
+        <v>32</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G167" t="s">
+        <v>32</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G168" t="s">
+        <v>32</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G169" t="s">
+        <v>32</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G170" t="s">
+        <v>32</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G171" t="s">
+        <v>32</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G172" t="s">
+        <v>28</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G173" t="s">
+        <v>28</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G174" t="s">
+        <v>28</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G175" t="s">
+        <v>28</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G176" t="s">
+        <v>41</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s">
+        <v>38</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>35</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>41</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>28</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
       <c r="H181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>32</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>32</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>198</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>210</v>
+      </c>
+      <c r="G186" t="s">
+        <v>211</v>
+      </c>
       <c r="H186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I186" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" t="s">
-        <v>200</v>
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22277.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22277.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400273</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Mica</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412533</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Duckworth</t>
   </si>
   <si>
@@ -647,6 +656,9 @@
   </si>
   <si>
     <t>412661</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Grothman</t>
@@ -1007,7 +1019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,7 +1027,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,5163 +1052,5488 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>38</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>38</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>41</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>41</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>41</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>44</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>32</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>32</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>32</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>32</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>32</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>32</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>35</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>32</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>32</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>32</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>35</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>32</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>32</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s">
-        <v>28</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>32</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s">
-        <v>28</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>32</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s">
-        <v>28</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>28</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>32</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>35</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>32</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>35</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s">
-        <v>28</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>32</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>35</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s">
-        <v>28</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" t="s">
-        <v>32</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>35</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s">
-        <v>28</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" t="s">
-        <v>32</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>35</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>28</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" t="s">
-        <v>35</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>38</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s">
-        <v>38</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>41</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" t="s">
-        <v>41</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>44</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s">
-        <v>173</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>176</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s">
-        <v>32</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>35</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s">
-        <v>28</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>31</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s">
-        <v>32</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>35</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s">
-        <v>28</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>35</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
-      </c>
-      <c r="G157" t="s">
-        <v>28</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>35</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>38</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
-      </c>
-      <c r="G159" t="s">
-        <v>35</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>38</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>35</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>38</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>23</v>
-      </c>
-      <c r="G161" t="s">
-        <v>35</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>38</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>38</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>35</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>32</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>35</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>23</v>
-      </c>
-      <c r="G165" t="s">
-        <v>32</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>35</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>32</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>35</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>23</v>
-      </c>
-      <c r="G167" t="s">
-        <v>32</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>35</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>32</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>35</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>23</v>
-      </c>
-      <c r="G169" t="s">
-        <v>32</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>35</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>32</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>35</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>23</v>
-      </c>
-      <c r="G171" t="s">
-        <v>32</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>35</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" t="s">
-        <v>28</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>23</v>
-      </c>
-      <c r="G173" t="s">
-        <v>28</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>31</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
-      </c>
-      <c r="G174" t="s">
-        <v>28</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>31</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>23</v>
-      </c>
-      <c r="G175" t="s">
-        <v>28</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>31</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s">
-        <v>41</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>23</v>
-      </c>
-      <c r="G177" t="s">
-        <v>38</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>41</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
-      </c>
-      <c r="G178" t="s">
-        <v>35</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>38</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>23</v>
-      </c>
-      <c r="G179" t="s">
-        <v>41</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>44</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" t="s">
-        <v>28</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>31</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" t="s">
-        <v>32</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>35</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I183" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>23</v>
-      </c>
-      <c r="G184" t="s">
-        <v>32</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>35</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G186" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H186" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I186" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>216</v>
+      </c>
+      <c r="J186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>214</v>
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
